--- a/RoomOccupancy.Persistence/Initializer/Files/Zajetosc_Sal_do_POLON_budynek_23.xlsx
+++ b/RoomOccupancy.Persistence/Initializer/Files/Zajetosc_Sal_do_POLON_budynek_23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\Repo\RoomOccupancy\RoomOccupancy.Persistence\Initializer\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RoomOccupancy\RoomOccupancy.Persistence\Initializer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2007,10 +2007,10 @@
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="737A8C"/>
+        <a:sysClr val="windowText" lastClr="2E353D"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="273038"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2291,38 +2291,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A256" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="E603" sqref="E603"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="7.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="33" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" customWidth="1"/>
     <col min="21" max="22" width="15" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>334</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>23</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="U3" s="89"/>
       <c r="V3" s="89"/>
     </row>
-    <row r="4" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <v>23</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="U4" s="89"/>
       <c r="V4" s="89"/>
     </row>
-    <row r="5" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <v>23</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
     </row>
-    <row r="6" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>23</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="U6" s="89"/>
       <c r="V6" s="89"/>
     </row>
-    <row r="7" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="10">
         <v>23</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="U7" s="89"/>
       <c r="V7" s="89"/>
     </row>
-    <row r="8" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
         <v>23</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="U8" s="89"/>
       <c r="V8" s="89"/>
     </row>
-    <row r="9" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>23</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="U9" s="89"/>
       <c r="V9" s="89"/>
     </row>
-    <row r="10" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <v>23</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="U10" s="89"/>
       <c r="V10" s="89"/>
     </row>
-    <row r="11" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <v>23</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="U11" s="89"/>
       <c r="V11" s="89"/>
     </row>
-    <row r="12" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <v>23</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="U12" s="89"/>
       <c r="V12" s="89"/>
     </row>
-    <row r="13" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <v>23</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="U13" s="89"/>
       <c r="V13" s="89"/>
     </row>
-    <row r="14" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>23</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="U14" s="89"/>
       <c r="V14" s="89"/>
     </row>
-    <row r="15" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <v>23</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="U15" s="89"/>
       <c r="V15" s="89"/>
     </row>
-    <row r="16" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <v>23</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="U16" s="89"/>
       <c r="V16" s="89"/>
     </row>
-    <row r="17" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <v>23</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="U17" s="89"/>
       <c r="V17" s="89"/>
     </row>
-    <row r="18" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
         <v>23</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="U18" s="89"/>
       <c r="V18" s="89"/>
     </row>
-    <row r="19" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10">
         <v>23</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="U19" s="89"/>
       <c r="V19" s="89"/>
     </row>
-    <row r="20" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
         <v>23</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="U20" s="89"/>
       <c r="V20" s="89"/>
     </row>
-    <row r="21" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
         <v>23</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="U21" s="89"/>
       <c r="V21" s="89"/>
     </row>
-    <row r="22" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <v>23</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="U22" s="89"/>
       <c r="V22" s="89"/>
     </row>
-    <row r="23" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <v>23</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="U23" s="89"/>
       <c r="V23" s="89"/>
     </row>
-    <row r="24" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <v>23</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="U24" s="89"/>
       <c r="V24" s="89"/>
     </row>
-    <row r="25" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <v>23</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="U25" s="89"/>
       <c r="V25" s="89"/>
     </row>
-    <row r="26" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="U26" s="89"/>
       <c r="V26" s="89"/>
     </row>
-    <row r="27" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <v>23</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="U27" s="89"/>
       <c r="V27" s="89"/>
     </row>
-    <row r="28" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <v>23</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="U28" s="89"/>
       <c r="V28" s="89"/>
     </row>
-    <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <v>23</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="U29" s="89"/>
       <c r="V29" s="89"/>
     </row>
-    <row r="30" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <v>23</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="U30" s="89"/>
       <c r="V30" s="89"/>
     </row>
-    <row r="31" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <v>23</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="U31" s="89"/>
       <c r="V31" s="89"/>
     </row>
-    <row r="32" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <v>23</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="U32" s="89"/>
       <c r="V32" s="89"/>
     </row>
-    <row r="33" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <v>23</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="U33" s="89"/>
       <c r="V33" s="89"/>
     </row>
-    <row r="34" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <v>23</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="U34" s="89"/>
       <c r="V34" s="89"/>
     </row>
-    <row r="35" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <v>23</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="U35" s="89"/>
       <c r="V35" s="89"/>
     </row>
-    <row r="36" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <v>23</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="U36" s="89"/>
       <c r="V36" s="89"/>
     </row>
-    <row r="37" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <v>23</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="U37" s="89"/>
       <c r="V37" s="89"/>
     </row>
-    <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <v>23</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="U38" s="89"/>
       <c r="V38" s="89"/>
     </row>
-    <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <v>23</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="U39" s="89"/>
       <c r="V39" s="89"/>
     </row>
-    <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <v>23</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="U40" s="89"/>
       <c r="V40" s="89"/>
     </row>
-    <row r="41" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <v>23</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="U42" s="89"/>
       <c r="V42" s="89"/>
     </row>
-    <row r="43" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <v>23</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="U43" s="89"/>
       <c r="V43" s="89"/>
     </row>
-    <row r="44" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <v>23</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="U44" s="89"/>
       <c r="V44" s="89"/>
     </row>
-    <row r="45" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <v>23</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="U45" s="89"/>
       <c r="V45" s="89"/>
     </row>
-    <row r="46" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <v>23</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="U46" s="89"/>
       <c r="V46" s="89"/>
     </row>
-    <row r="47" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <v>23</v>
       </c>
@@ -4532,7 +4532,7 @@
       <c r="U47" s="89"/>
       <c r="V47" s="89"/>
     </row>
-    <row r="48" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <v>23</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="U48" s="89"/>
       <c r="V48" s="89"/>
     </row>
-    <row r="49" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <v>23</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="U49" s="89"/>
       <c r="V49" s="89"/>
     </row>
-    <row r="50" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <v>23</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="U50" s="89"/>
       <c r="V50" s="89"/>
     </row>
-    <row r="51" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <v>23</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="U51" s="89"/>
       <c r="V51" s="89"/>
     </row>
-    <row r="52" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <v>23</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="U52" s="89"/>
       <c r="V52" s="89"/>
     </row>
-    <row r="53" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <v>23</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="U53" s="89"/>
       <c r="V53" s="89"/>
     </row>
-    <row r="54" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <v>23</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="U54" s="89"/>
       <c r="V54" s="89"/>
     </row>
-    <row r="55" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <v>23</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="U55" s="89"/>
       <c r="V55" s="89"/>
     </row>
-    <row r="56" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <v>23</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="U56" s="89"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <v>23</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="U57" s="89"/>
       <c r="V57" s="89"/>
     </row>
-    <row r="58" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10">
         <v>23</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="U58" s="89"/>
       <c r="V58" s="89"/>
     </row>
-    <row r="59" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10">
         <v>23</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="U59" s="89"/>
       <c r="V59" s="89"/>
     </row>
-    <row r="60" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10">
         <v>23</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="U60" s="89"/>
       <c r="V60" s="89"/>
     </row>
-    <row r="61" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <v>23</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="U61" s="89"/>
       <c r="V61" s="89"/>
     </row>
-    <row r="62" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10">
         <v>23</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="U62" s="89"/>
       <c r="V62" s="89"/>
     </row>
-    <row r="63" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10">
         <v>23</v>
       </c>
@@ -5286,7 +5286,7 @@
       <c r="U63" s="89"/>
       <c r="V63" s="89"/>
     </row>
-    <row r="64" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10">
         <v>23</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="U64" s="89"/>
       <c r="V64" s="89"/>
     </row>
-    <row r="65" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10">
         <v>23</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="U65" s="89"/>
       <c r="V65" s="89"/>
     </row>
-    <row r="66" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10">
         <v>23</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="U66" s="89"/>
       <c r="V66" s="89"/>
     </row>
-    <row r="67" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10">
         <v>23</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="U67" s="89"/>
       <c r="V67" s="89"/>
     </row>
-    <row r="68" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10">
         <v>23</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="U68" s="89"/>
       <c r="V68" s="89"/>
     </row>
-    <row r="69" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10">
         <v>23</v>
       </c>
@@ -5568,7 +5568,7 @@
       <c r="U69" s="89"/>
       <c r="V69" s="89"/>
     </row>
-    <row r="70" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10">
         <v>23</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="U70" s="89"/>
       <c r="V70" s="89"/>
     </row>
-    <row r="71" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10">
         <v>23</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="U71" s="89"/>
       <c r="V71" s="89"/>
     </row>
-    <row r="72" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10">
         <v>23</v>
       </c>
@@ -5709,7 +5709,7 @@
       <c r="U72" s="89"/>
       <c r="V72" s="89"/>
     </row>
-    <row r="73" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10">
         <v>23</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="U73" s="89"/>
       <c r="V73" s="89"/>
     </row>
-    <row r="74" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10">
         <v>23</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="U74" s="89"/>
       <c r="V74" s="89"/>
     </row>
-    <row r="75" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10">
         <v>23</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="U75" s="89"/>
       <c r="V75" s="89"/>
     </row>
-    <row r="76" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10">
         <v>23</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="U76" s="89"/>
       <c r="V76" s="89"/>
     </row>
-    <row r="77" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="10">
         <v>23</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="U77" s="89"/>
       <c r="V77" s="89"/>
     </row>
-    <row r="78" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="10">
         <v>23</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="U78" s="89"/>
       <c r="V78" s="89"/>
     </row>
-    <row r="79" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10">
         <v>23</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="U79" s="89"/>
       <c r="V79" s="89"/>
     </row>
-    <row r="80" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="10">
         <v>23</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="U80" s="89"/>
       <c r="V80" s="89"/>
     </row>
-    <row r="81" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10">
         <v>23</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="U81" s="89"/>
       <c r="V81" s="89"/>
     </row>
-    <row r="82" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="10">
         <v>23</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="U82" s="89"/>
       <c r="V82" s="89"/>
     </row>
-    <row r="83" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10">
         <v>23</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="U83" s="89"/>
       <c r="V83" s="89"/>
     </row>
-    <row r="84" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10">
         <v>23</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="U84" s="89"/>
       <c r="V84" s="89"/>
     </row>
-    <row r="85" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="10">
         <v>23</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="U85" s="89"/>
       <c r="V85" s="89"/>
     </row>
-    <row r="86" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="10">
         <v>23</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="U86" s="89"/>
       <c r="V86" s="89"/>
     </row>
-    <row r="87" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10">
         <v>23</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="U87" s="89"/>
       <c r="V87" s="89"/>
     </row>
-    <row r="88" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10">
         <v>23</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="U88" s="89"/>
       <c r="V88" s="89"/>
     </row>
-    <row r="89" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="10">
         <v>23</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="U89" s="89"/>
       <c r="V89" s="89"/>
     </row>
-    <row r="90" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10">
         <v>23</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="U90" s="89"/>
       <c r="V90" s="89"/>
     </row>
-    <row r="91" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="10">
         <v>23</v>
       </c>
@@ -6602,7 +6602,7 @@
       <c r="U91" s="89"/>
       <c r="V91" s="89"/>
     </row>
-    <row r="92" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="10">
         <v>23</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="U92" s="89"/>
       <c r="V92" s="89"/>
     </row>
-    <row r="93" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="10">
         <v>23</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="U93" s="89"/>
       <c r="V93" s="89"/>
     </row>
-    <row r="94" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10">
         <v>23</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="U94" s="89"/>
       <c r="V94" s="89"/>
     </row>
-    <row r="95" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="10">
         <v>23</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="U95" s="89"/>
       <c r="V95" s="89"/>
     </row>
-    <row r="96" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="10">
         <v>23</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="U96" s="89"/>
       <c r="V96" s="89"/>
     </row>
-    <row r="97" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10">
         <v>23</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="U97" s="89"/>
       <c r="V97" s="89"/>
     </row>
-    <row r="98" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="10">
         <v>23</v>
       </c>
@@ -6929,7 +6929,7 @@
       <c r="U98" s="89"/>
       <c r="V98" s="89"/>
     </row>
-    <row r="99" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10">
         <v>23</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="U99" s="89"/>
       <c r="V99" s="89"/>
     </row>
-    <row r="100" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10">
         <v>23</v>
       </c>
@@ -7023,7 +7023,7 @@
       <c r="U100" s="89"/>
       <c r="V100" s="89"/>
     </row>
-    <row r="101" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10">
         <v>23</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="U101" s="89"/>
       <c r="V101" s="89"/>
     </row>
-    <row r="102" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="10">
         <v>23</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="U102" s="89"/>
       <c r="V102" s="89"/>
     </row>
-    <row r="103" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="10">
         <v>23</v>
       </c>
@@ -7164,7 +7164,7 @@
       <c r="U103" s="89"/>
       <c r="V103" s="89"/>
     </row>
-    <row r="104" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10">
         <v>23</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="U104" s="89"/>
       <c r="V104" s="89"/>
     </row>
-    <row r="105" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10">
         <v>23</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="U105" s="89"/>
       <c r="V105" s="89"/>
     </row>
-    <row r="106" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10">
         <v>23</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="U106" s="89"/>
       <c r="V106" s="89"/>
     </row>
-    <row r="107" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10">
         <v>23</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="U107" s="89"/>
       <c r="V107" s="89"/>
     </row>
-    <row r="108" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="10">
         <v>23</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="U108" s="89"/>
       <c r="V108" s="89"/>
     </row>
-    <row r="109" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="10">
         <v>23</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="U109" s="89"/>
       <c r="V109" s="89"/>
     </row>
-    <row r="110" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10">
         <v>23</v>
       </c>
@@ -7493,7 +7493,7 @@
       <c r="U110" s="89"/>
       <c r="V110" s="89"/>
     </row>
-    <row r="111" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10">
         <v>23</v>
       </c>
@@ -7540,7 +7540,7 @@
       <c r="U111" s="89"/>
       <c r="V111" s="89"/>
     </row>
-    <row r="112" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10">
         <v>23</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="U112" s="89"/>
       <c r="V112" s="89"/>
     </row>
-    <row r="113" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10">
         <v>23</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="U113" s="89"/>
       <c r="V113" s="89"/>
     </row>
-    <row r="114" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="10">
         <v>23</v>
       </c>
@@ -7681,7 +7681,7 @@
       <c r="U114" s="89"/>
       <c r="V114" s="89"/>
     </row>
-    <row r="115" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="10">
         <v>23</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="U115" s="89"/>
       <c r="V115" s="89"/>
     </row>
-    <row r="116" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="10">
         <v>23</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="U116" s="89"/>
       <c r="V116" s="89"/>
     </row>
-    <row r="117" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="10">
         <v>23</v>
       </c>
@@ -7822,7 +7822,7 @@
       <c r="U117" s="89"/>
       <c r="V117" s="89"/>
     </row>
-    <row r="118" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="10">
         <v>23</v>
       </c>
@@ -7869,7 +7869,7 @@
       <c r="U118" s="89"/>
       <c r="V118" s="89"/>
     </row>
-    <row r="119" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="10">
         <v>23</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="U119" s="89"/>
       <c r="V119" s="89"/>
     </row>
-    <row r="120" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="10">
         <v>23</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="U120" s="89"/>
       <c r="V120" s="89"/>
     </row>
-    <row r="121" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10">
         <v>23</v>
       </c>
@@ -8010,7 +8010,7 @@
       <c r="U121" s="89"/>
       <c r="V121" s="89"/>
     </row>
-    <row r="122" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="10">
         <v>23</v>
       </c>
@@ -8057,7 +8057,7 @@
       <c r="U122" s="89"/>
       <c r="V122" s="89"/>
     </row>
-    <row r="123" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="10">
         <v>23</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="U123" s="89"/>
       <c r="V123" s="89"/>
     </row>
-    <row r="124" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="10">
         <v>23</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="U124" s="89"/>
       <c r="V124" s="89"/>
     </row>
-    <row r="125" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="10">
         <v>23</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="U125" s="89"/>
       <c r="V125" s="89"/>
     </row>
-    <row r="126" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="10">
         <v>23</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="U126" s="89"/>
       <c r="V126" s="89"/>
     </row>
-    <row r="127" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="10">
         <v>23</v>
       </c>
@@ -8292,7 +8292,7 @@
       <c r="U127" s="89"/>
       <c r="V127" s="89"/>
     </row>
-    <row r="128" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="10">
         <v>23</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="U128" s="89"/>
       <c r="V128" s="89"/>
     </row>
-    <row r="129" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="10">
         <v>23</v>
       </c>
@@ -8386,7 +8386,7 @@
       <c r="U129" s="89"/>
       <c r="V129" s="89"/>
     </row>
-    <row r="130" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10">
         <v>23</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="U130" s="89"/>
       <c r="V130" s="89"/>
     </row>
-    <row r="131" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="10">
         <v>23</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="U131" s="89"/>
       <c r="V131" s="89"/>
     </row>
-    <row r="132" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="10">
         <v>23</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="U132" s="89"/>
       <c r="V132" s="89"/>
     </row>
-    <row r="133" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="10">
         <v>23</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="U133" s="89"/>
       <c r="V133" s="89"/>
     </row>
-    <row r="134" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="10">
         <v>23</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="U134" s="89"/>
       <c r="V134" s="89"/>
     </row>
-    <row r="135" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="10">
         <v>23</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="U135" s="89"/>
       <c r="V135" s="89"/>
     </row>
-    <row r="136" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="10">
         <v>23</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="U136" s="89"/>
       <c r="V136" s="89"/>
     </row>
-    <row r="137" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="10">
         <v>23</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="U137" s="89"/>
       <c r="V137" s="89"/>
     </row>
-    <row r="138" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="10">
         <v>23</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="U138" s="89"/>
       <c r="V138" s="89"/>
     </row>
-    <row r="139" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="10">
         <v>23</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="U139" s="89"/>
       <c r="V139" s="89"/>
     </row>
-    <row r="140" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="10">
         <v>23</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="U140" s="89"/>
       <c r="V140" s="89"/>
     </row>
-    <row r="141" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="10">
         <v>23</v>
       </c>
@@ -8946,7 +8946,7 @@
       <c r="U141" s="89"/>
       <c r="V141" s="89"/>
     </row>
-    <row r="142" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="10">
         <v>23</v>
       </c>
@@ -8993,7 +8993,7 @@
       <c r="U142" s="89"/>
       <c r="V142" s="89"/>
     </row>
-    <row r="143" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="10">
         <v>23</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="U143" s="89"/>
       <c r="V143" s="89"/>
     </row>
-    <row r="144" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="10">
         <v>23</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="U144" s="89"/>
       <c r="V144" s="89"/>
     </row>
-    <row r="145" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="10">
         <v>23</v>
       </c>
@@ -9134,7 +9134,7 @@
       <c r="U145" s="89"/>
       <c r="V145" s="89"/>
     </row>
-    <row r="146" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="10">
         <v>23</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="U146" s="89"/>
       <c r="V146" s="89"/>
     </row>
-    <row r="147" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="10">
         <v>23</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="U147" s="89"/>
       <c r="V147" s="89"/>
     </row>
-    <row r="148" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="10">
         <v>23</v>
       </c>
@@ -9273,7 +9273,7 @@
       <c r="U148" s="89"/>
       <c r="V148" s="89"/>
     </row>
-    <row r="149" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="10">
         <v>23</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="U149" s="89"/>
       <c r="V149" s="89"/>
     </row>
-    <row r="150" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="10">
         <v>23</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="U150" s="89"/>
       <c r="V150" s="89"/>
     </row>
-    <row r="151" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="10">
         <v>23</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="U151" s="89"/>
       <c r="V151" s="89"/>
     </row>
-    <row r="152" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="10">
         <v>23</v>
       </c>
@@ -9461,7 +9461,7 @@
       <c r="U152" s="89"/>
       <c r="V152" s="89"/>
     </row>
-    <row r="153" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="10">
         <v>23</v>
       </c>
@@ -9508,7 +9508,7 @@
       <c r="U153" s="89"/>
       <c r="V153" s="89"/>
     </row>
-    <row r="154" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="10">
         <v>23</v>
       </c>
@@ -9555,7 +9555,7 @@
       <c r="U154" s="89"/>
       <c r="V154" s="89"/>
     </row>
-    <row r="155" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="10">
         <v>23</v>
       </c>
@@ -9602,7 +9602,7 @@
       <c r="U155" s="89"/>
       <c r="V155" s="89"/>
     </row>
-    <row r="156" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="10">
         <v>23</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="U156" s="89"/>
       <c r="V156" s="89"/>
     </row>
-    <row r="157" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="10">
         <v>23</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="U157" s="89"/>
       <c r="V157" s="89"/>
     </row>
-    <row r="158" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="10">
         <v>23</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="U158" s="89"/>
       <c r="V158" s="89"/>
     </row>
-    <row r="159" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="10">
         <v>23</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="U159" s="89"/>
       <c r="V159" s="89"/>
     </row>
-    <row r="160" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="65">
         <v>23</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="U160" s="89"/>
       <c r="V160" s="89"/>
     </row>
-    <row r="161" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="36">
         <v>23</v>
       </c>
@@ -9884,7 +9884,7 @@
       <c r="U161" s="89"/>
       <c r="V161" s="89"/>
     </row>
-    <row r="162" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="36">
         <v>23</v>
       </c>
@@ -9931,7 +9931,7 @@
       <c r="U162" s="89"/>
       <c r="V162" s="89"/>
     </row>
-    <row r="163" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="36">
         <v>23</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="U163" s="89"/>
       <c r="V163" s="89"/>
     </row>
-    <row r="164" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="36">
         <v>23</v>
       </c>
@@ -10025,7 +10025,7 @@
       <c r="U164" s="89"/>
       <c r="V164" s="89"/>
     </row>
-    <row r="165" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="39">
         <v>23</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="166" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="36">
         <v>23</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="167" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="36">
         <v>23</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="168" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="36">
         <v>23</v>
       </c>
@@ -10267,7 +10267,7 @@
       <c r="U168" s="89"/>
       <c r="V168" s="89"/>
     </row>
-    <row r="169" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="39">
         <v>23</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="U169" s="89"/>
       <c r="V169" s="89"/>
     </row>
-    <row r="170" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="36">
         <v>23</v>
       </c>
@@ -10361,7 +10361,7 @@
       <c r="U170" s="89"/>
       <c r="V170" s="89"/>
     </row>
-    <row r="171" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="36">
         <v>23</v>
       </c>
@@ -10408,7 +10408,7 @@
       <c r="U171" s="89"/>
       <c r="V171" s="89"/>
     </row>
-    <row r="172" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="36">
         <v>23</v>
       </c>
@@ -10455,7 +10455,7 @@
       <c r="U172" s="89"/>
       <c r="V172" s="89"/>
     </row>
-    <row r="173" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="39">
         <v>23</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="U173" s="89"/>
       <c r="V173" s="89"/>
     </row>
-    <row r="174" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="36">
         <v>23</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="U174" s="89"/>
       <c r="V174" s="89"/>
     </row>
-    <row r="175" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="36">
         <v>23</v>
       </c>
@@ -10598,7 +10598,7 @@
       <c r="U175" s="89"/>
       <c r="V175" s="89"/>
     </row>
-    <row r="176" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="36">
         <v>23</v>
       </c>
@@ -10645,7 +10645,7 @@
       <c r="U176" s="89"/>
       <c r="V176" s="89"/>
     </row>
-    <row r="177" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="39">
         <v>23</v>
       </c>
@@ -10692,7 +10692,7 @@
       <c r="U177" s="89"/>
       <c r="V177" s="89"/>
     </row>
-    <row r="178" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="36">
         <v>23</v>
       </c>
@@ -10739,7 +10739,7 @@
       <c r="U178" s="89"/>
       <c r="V178" s="89"/>
     </row>
-    <row r="179" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="36">
         <v>23</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="U179" s="89"/>
       <c r="V179" s="89"/>
     </row>
-    <row r="180" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="36">
         <v>23</v>
       </c>
@@ -10833,7 +10833,7 @@
       <c r="U180" s="89"/>
       <c r="V180" s="89"/>
     </row>
-    <row r="181" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="39">
         <v>23</v>
       </c>
@@ -10880,7 +10880,7 @@
       <c r="U181" s="89"/>
       <c r="V181" s="89"/>
     </row>
-    <row r="182" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="36">
         <v>23</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="U182" s="89"/>
       <c r="V182" s="89"/>
     </row>
-    <row r="183" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="36">
         <v>23</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="U183" s="89"/>
       <c r="V183" s="89"/>
     </row>
-    <row r="184" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="36">
         <v>23</v>
       </c>
@@ -11023,7 +11023,7 @@
       <c r="U184" s="89"/>
       <c r="V184" s="89"/>
     </row>
-    <row r="185" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="39">
         <v>23</v>
       </c>
@@ -11070,7 +11070,7 @@
       <c r="U185" s="89"/>
       <c r="V185" s="89"/>
     </row>
-    <row r="186" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="36">
         <v>23</v>
       </c>
@@ -11117,7 +11117,7 @@
       <c r="U186" s="89"/>
       <c r="V186" s="89"/>
     </row>
-    <row r="187" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="36">
         <v>23</v>
       </c>
@@ -11164,7 +11164,7 @@
       <c r="U187" s="89"/>
       <c r="V187" s="89"/>
     </row>
-    <row r="188" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="36">
         <v>23</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="U188" s="89"/>
       <c r="V188" s="89"/>
     </row>
-    <row r="189" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="39">
         <v>23</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="U189" s="89"/>
       <c r="V189" s="89"/>
     </row>
-    <row r="190" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="36">
         <v>23</v>
       </c>
@@ -11305,7 +11305,7 @@
       <c r="U190" s="89"/>
       <c r="V190" s="89"/>
     </row>
-    <row r="191" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="36">
         <v>23</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="U191" s="89"/>
       <c r="V191" s="89"/>
     </row>
-    <row r="192" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="36">
         <v>23</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="U192" s="89"/>
       <c r="V192" s="89"/>
     </row>
-    <row r="193" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="39">
         <v>23</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="U193" s="89"/>
       <c r="V193" s="89"/>
     </row>
-    <row r="194" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="36">
         <v>23</v>
       </c>
@@ -11493,7 +11493,7 @@
       <c r="U194" s="89"/>
       <c r="V194" s="89"/>
     </row>
-    <row r="195" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="36">
         <v>23</v>
       </c>
@@ -11540,7 +11540,7 @@
       <c r="U195" s="89"/>
       <c r="V195" s="89"/>
     </row>
-    <row r="196" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="36">
         <v>23</v>
       </c>
@@ -11587,7 +11587,7 @@
       <c r="U196" s="89"/>
       <c r="V196" s="89"/>
     </row>
-    <row r="197" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="39">
         <v>23</v>
       </c>
@@ -11636,7 +11636,7 @@
       <c r="U197" s="89"/>
       <c r="V197" s="89"/>
     </row>
-    <row r="198" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="36">
         <v>23</v>
       </c>
@@ -11685,7 +11685,7 @@
       <c r="U198" s="89"/>
       <c r="V198" s="89"/>
     </row>
-    <row r="199" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B199" s="36">
         <v>23</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="U199" s="89"/>
       <c r="V199" s="89"/>
     </row>
-    <row r="200" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B200" s="36">
         <v>23</v>
       </c>
@@ -11777,7 +11777,7 @@
       <c r="U200" s="89"/>
       <c r="V200" s="89"/>
     </row>
-    <row r="201" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B201" s="39">
         <v>23</v>
       </c>
@@ -11822,7 +11822,7 @@
       <c r="U201" s="89"/>
       <c r="V201" s="89"/>
     </row>
-    <row r="202" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B202" s="36">
         <v>23</v>
       </c>
@@ -11869,7 +11869,7 @@
       <c r="U202" s="89"/>
       <c r="V202" s="89"/>
     </row>
-    <row r="203" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B203" s="36">
         <v>23</v>
       </c>
@@ -11916,7 +11916,7 @@
       <c r="U203" s="89"/>
       <c r="V203" s="89"/>
     </row>
-    <row r="204" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B204" s="36">
         <v>23</v>
       </c>
@@ -11963,7 +11963,7 @@
       <c r="U204" s="89"/>
       <c r="V204" s="89"/>
     </row>
-    <row r="205" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B205" s="39">
         <v>23</v>
       </c>
@@ -12010,7 +12010,7 @@
       <c r="U205" s="89"/>
       <c r="V205" s="89"/>
     </row>
-    <row r="206" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B206" s="36">
         <v>23</v>
       </c>
@@ -12057,7 +12057,7 @@
       <c r="U206" s="89"/>
       <c r="V206" s="89"/>
     </row>
-    <row r="207" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B207" s="36">
         <v>23</v>
       </c>
@@ -12104,7 +12104,7 @@
       <c r="U207" s="89"/>
       <c r="V207" s="89"/>
     </row>
-    <row r="208" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B208" s="36">
         <v>23</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="U208" s="89"/>
       <c r="V208" s="89"/>
     </row>
-    <row r="209" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B209" s="39">
         <v>23</v>
       </c>
@@ -12198,7 +12198,7 @@
       <c r="U209" s="89"/>
       <c r="V209" s="89"/>
     </row>
-    <row r="210" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B210" s="36">
         <v>23</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="U210" s="89"/>
       <c r="V210" s="89"/>
     </row>
-    <row r="211" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B211" s="36">
         <v>23</v>
       </c>
@@ -12296,7 +12296,7 @@
       <c r="U211" s="89"/>
       <c r="V211" s="89"/>
     </row>
-    <row r="212" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B212" s="36">
         <v>23</v>
       </c>
@@ -12343,7 +12343,7 @@
       <c r="U212" s="89"/>
       <c r="V212" s="89"/>
     </row>
-    <row r="213" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B213" s="39">
         <v>23</v>
       </c>
@@ -12390,7 +12390,7 @@
       <c r="U213" s="89"/>
       <c r="V213" s="89"/>
     </row>
-    <row r="214" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B214" s="36">
         <v>23</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="U214" s="89"/>
       <c r="V214" s="89"/>
     </row>
-    <row r="215" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B215" s="36">
         <v>23</v>
       </c>
@@ -12484,7 +12484,7 @@
       <c r="U215" s="89"/>
       <c r="V215" s="89"/>
     </row>
-    <row r="216" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B216" s="36">
         <v>23</v>
       </c>
@@ -12531,7 +12531,7 @@
       <c r="U216" s="89"/>
       <c r="V216" s="89"/>
     </row>
-    <row r="217" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B217" s="39">
         <v>23</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="U217" s="89"/>
       <c r="V217" s="89"/>
     </row>
-    <row r="218" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B218" s="36">
         <v>23</v>
       </c>
@@ -12625,7 +12625,7 @@
       <c r="U218" s="89"/>
       <c r="V218" s="89"/>
     </row>
-    <row r="219" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B219" s="36">
         <v>23</v>
       </c>
@@ -12672,7 +12672,7 @@
       <c r="U219" s="89"/>
       <c r="V219" s="89"/>
     </row>
-    <row r="220" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B220" s="36">
         <v>23</v>
       </c>
@@ -12719,7 +12719,7 @@
       <c r="U220" s="89"/>
       <c r="V220" s="89"/>
     </row>
-    <row r="221" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B221" s="39">
         <v>23</v>
       </c>
@@ -12766,7 +12766,7 @@
       <c r="U221" s="89"/>
       <c r="V221" s="89"/>
     </row>
-    <row r="222" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B222" s="36">
         <v>23</v>
       </c>
@@ -12813,7 +12813,7 @@
       <c r="U222" s="89"/>
       <c r="V222" s="89"/>
     </row>
-    <row r="223" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B223" s="36">
         <v>23</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="U223" s="89"/>
       <c r="V223" s="89"/>
     </row>
-    <row r="224" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B224" s="36">
         <v>23</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="U224" s="89"/>
       <c r="V224" s="89"/>
     </row>
-    <row r="225" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B225" s="39">
         <v>23</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="U225" s="89"/>
       <c r="V225" s="89"/>
     </row>
-    <row r="226" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B226" s="36">
         <v>23</v>
       </c>
@@ -13001,7 +13001,7 @@
       <c r="U226" s="89"/>
       <c r="V226" s="89"/>
     </row>
-    <row r="227" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B227" s="36">
         <v>23</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="U227" s="89"/>
       <c r="V227" s="89"/>
     </row>
-    <row r="228" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B228" s="36">
         <v>23</v>
       </c>
@@ -13095,7 +13095,7 @@
       <c r="U228" s="89"/>
       <c r="V228" s="89"/>
     </row>
-    <row r="229" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B229" s="39">
         <v>23</v>
       </c>
@@ -13142,7 +13142,7 @@
       <c r="U229" s="89"/>
       <c r="V229" s="89"/>
     </row>
-    <row r="230" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B230" s="36">
         <v>23</v>
       </c>
@@ -13189,7 +13189,7 @@
       <c r="U230" s="89"/>
       <c r="V230" s="89"/>
     </row>
-    <row r="231" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B231" s="36">
         <v>23</v>
       </c>
@@ -13236,7 +13236,7 @@
       <c r="U231" s="89"/>
       <c r="V231" s="89"/>
     </row>
-    <row r="232" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B232" s="36">
         <v>23</v>
       </c>
@@ -13283,7 +13283,7 @@
       <c r="U232" s="89"/>
       <c r="V232" s="89"/>
     </row>
-    <row r="233" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B233" s="39">
         <v>23</v>
       </c>
@@ -13330,7 +13330,7 @@
       <c r="U233" s="89"/>
       <c r="V233" s="89"/>
     </row>
-    <row r="234" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B234" s="36">
         <v>23</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="U234" s="89"/>
       <c r="V234" s="89"/>
     </row>
-    <row r="235" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B235" s="36">
         <v>23</v>
       </c>
@@ -13424,7 +13424,7 @@
       <c r="U235" s="89"/>
       <c r="V235" s="89"/>
     </row>
-    <row r="236" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B236" s="36">
         <v>23</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="237" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B237" s="39">
         <v>23</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="238" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B238" s="36">
         <v>23</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="239" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B239" s="36">
         <v>23</v>
       </c>
@@ -13666,7 +13666,7 @@
       <c r="U239" s="89"/>
       <c r="V239" s="89"/>
     </row>
-    <row r="240" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B240" s="36">
         <v>23</v>
       </c>
@@ -13713,7 +13713,7 @@
       <c r="U240" s="89"/>
       <c r="V240" s="89"/>
     </row>
-    <row r="241" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B241" s="39">
         <v>23</v>
       </c>
@@ -13760,7 +13760,7 @@
       <c r="U241" s="89"/>
       <c r="V241" s="89"/>
     </row>
-    <row r="242" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B242" s="36">
         <v>23</v>
       </c>
@@ -13807,7 +13807,7 @@
       <c r="U242" s="89"/>
       <c r="V242" s="89"/>
     </row>
-    <row r="243" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B243" s="36">
         <v>23</v>
       </c>
@@ -13854,7 +13854,7 @@
       <c r="U243" s="89"/>
       <c r="V243" s="89"/>
     </row>
-    <row r="244" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B244" s="36">
         <v>23</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="U244" s="89"/>
       <c r="V244" s="89"/>
     </row>
-    <row r="245" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B245" s="39">
         <v>23</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="U245" s="89"/>
       <c r="V245" s="89"/>
     </row>
-    <row r="246" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B246" s="36">
         <v>23</v>
       </c>
@@ -13995,7 +13995,7 @@
       <c r="U246" s="89"/>
       <c r="V246" s="89"/>
     </row>
-    <row r="247" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="46">
         <v>23</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="U247" s="89"/>
       <c r="V247" s="89"/>
     </row>
-    <row r="248" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B248" s="36">
         <v>23</v>
       </c>
@@ -14089,7 +14089,7 @@
       <c r="U248" s="89"/>
       <c r="V248" s="89"/>
     </row>
-    <row r="249" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B249" s="39">
         <v>23</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="U249" s="89"/>
       <c r="V249" s="89"/>
     </row>
-    <row r="250" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B250" s="36">
         <v>23</v>
       </c>
@@ -14183,7 +14183,7 @@
       <c r="U250" s="89"/>
       <c r="V250" s="89"/>
     </row>
-    <row r="251" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B251" s="36">
         <v>23</v>
       </c>
@@ -14230,7 +14230,7 @@
       <c r="U251" s="89"/>
       <c r="V251" s="89"/>
     </row>
-    <row r="252" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B252" s="36">
         <v>23</v>
       </c>
@@ -14279,7 +14279,7 @@
       <c r="U252" s="89"/>
       <c r="V252" s="89"/>
     </row>
-    <row r="253" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B253" s="39">
         <v>23</v>
       </c>
@@ -14328,7 +14328,7 @@
       <c r="U253" s="89"/>
       <c r="V253" s="89"/>
     </row>
-    <row r="254" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B254" s="36">
         <v>23</v>
       </c>
@@ -14377,7 +14377,7 @@
       <c r="U254" s="89"/>
       <c r="V254" s="89"/>
     </row>
-    <row r="255" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B255" s="36">
         <v>23</v>
       </c>
@@ -14426,7 +14426,7 @@
       <c r="U255" s="89"/>
       <c r="V255" s="89"/>
     </row>
-    <row r="256" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="36">
         <v>23</v>
       </c>
@@ -14475,7 +14475,7 @@
       <c r="U256" s="89"/>
       <c r="V256" s="89"/>
     </row>
-    <row r="257" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B257" s="39">
         <v>23</v>
       </c>
@@ -14522,7 +14522,7 @@
       <c r="U257" s="89"/>
       <c r="V257" s="89"/>
     </row>
-    <row r="258" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B258" s="36">
         <v>23</v>
       </c>
@@ -14569,7 +14569,7 @@
       <c r="U258" s="89"/>
       <c r="V258" s="89"/>
     </row>
-    <row r="259" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B259" s="36">
         <v>23</v>
       </c>
@@ -14616,7 +14616,7 @@
       <c r="U259" s="89"/>
       <c r="V259" s="89"/>
     </row>
-    <row r="260" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B260" s="36">
         <v>23</v>
       </c>
@@ -14663,7 +14663,7 @@
       <c r="U260" s="89"/>
       <c r="V260" s="89"/>
     </row>
-    <row r="261" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B261" s="39">
         <v>23</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="U261" s="89"/>
       <c r="V261" s="89"/>
     </row>
-    <row r="262" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B262" s="36">
         <v>23</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="U262" s="89"/>
       <c r="V262" s="89"/>
     </row>
-    <row r="263" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B263" s="36">
         <v>23</v>
       </c>
@@ -14810,7 +14810,7 @@
       <c r="U263" s="89"/>
       <c r="V263" s="89"/>
     </row>
-    <row r="264" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B264" s="36">
         <v>23</v>
       </c>
@@ -14857,7 +14857,7 @@
       <c r="U264" s="89"/>
       <c r="V264" s="89"/>
     </row>
-    <row r="265" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B265" s="39">
         <v>23</v>
       </c>
@@ -14906,7 +14906,7 @@
       <c r="U265" s="89"/>
       <c r="V265" s="89"/>
     </row>
-    <row r="266" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B266" s="36">
         <v>23</v>
       </c>
@@ -14955,7 +14955,7 @@
       <c r="U266" s="89"/>
       <c r="V266" s="89"/>
     </row>
-    <row r="267" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B267" s="36">
         <v>23</v>
       </c>
@@ -15004,7 +15004,7 @@
       <c r="U267" s="89"/>
       <c r="V267" s="89"/>
     </row>
-    <row r="268" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B268" s="36">
         <v>23</v>
       </c>
@@ -15053,7 +15053,7 @@
       <c r="U268" s="89"/>
       <c r="V268" s="89"/>
     </row>
-    <row r="269" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B269" s="39">
         <v>23</v>
       </c>
@@ -15102,7 +15102,7 @@
       <c r="U269" s="89"/>
       <c r="V269" s="89"/>
     </row>
-    <row r="270" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="36">
         <v>23</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="U270" s="89"/>
       <c r="V270" s="89"/>
     </row>
-    <row r="271" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="36">
         <v>23</v>
       </c>
@@ -15200,7 +15200,7 @@
       <c r="U271" s="89"/>
       <c r="V271" s="89"/>
     </row>
-    <row r="272" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B272" s="36">
         <v>23</v>
       </c>
@@ -15247,7 +15247,7 @@
       <c r="U272" s="89"/>
       <c r="V272" s="89"/>
     </row>
-    <row r="273" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B273" s="39">
         <v>23</v>
       </c>
@@ -15294,7 +15294,7 @@
       <c r="U273" s="89"/>
       <c r="V273" s="89"/>
     </row>
-    <row r="274" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B274" s="36">
         <v>23</v>
       </c>
@@ -15341,7 +15341,7 @@
       <c r="U274" s="89"/>
       <c r="V274" s="89"/>
     </row>
-    <row r="275" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B275" s="36">
         <v>23</v>
       </c>
@@ -15388,7 +15388,7 @@
       <c r="U275" s="89"/>
       <c r="V275" s="89"/>
     </row>
-    <row r="276" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B276" s="36">
         <v>23</v>
       </c>
@@ -15435,7 +15435,7 @@
       <c r="U276" s="89"/>
       <c r="V276" s="89"/>
     </row>
-    <row r="277" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B277" s="39">
         <v>23</v>
       </c>
@@ -15482,7 +15482,7 @@
       <c r="U277" s="89"/>
       <c r="V277" s="89"/>
     </row>
-    <row r="278" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B278" s="36">
         <v>23</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="U278" s="89"/>
       <c r="V278" s="89"/>
     </row>
-    <row r="279" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B279" s="36">
         <v>23</v>
       </c>
@@ -15576,7 +15576,7 @@
       <c r="U279" s="89"/>
       <c r="V279" s="89"/>
     </row>
-    <row r="280" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B280" s="36">
         <v>23</v>
       </c>
@@ -15623,7 +15623,7 @@
       <c r="U280" s="89"/>
       <c r="V280" s="89"/>
     </row>
-    <row r="281" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B281" s="39">
         <v>23</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="U281" s="89"/>
       <c r="V281" s="89"/>
     </row>
-    <row r="282" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B282" s="36">
         <v>23</v>
       </c>
@@ -15721,7 +15721,7 @@
       <c r="U282" s="89"/>
       <c r="V282" s="89"/>
     </row>
-    <row r="283" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B283" s="36">
         <v>23</v>
       </c>
@@ -15770,7 +15770,7 @@
       <c r="U283" s="89"/>
       <c r="V283" s="89"/>
     </row>
-    <row r="284" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B284" s="36">
         <v>23</v>
       </c>
@@ -15819,7 +15819,7 @@
       <c r="U284" s="89"/>
       <c r="V284" s="89"/>
     </row>
-    <row r="285" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="39">
         <v>23</v>
       </c>
@@ -15868,7 +15868,7 @@
       <c r="U285" s="89"/>
       <c r="V285" s="89"/>
     </row>
-    <row r="286" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B286" s="36">
         <v>23</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="U286" s="89"/>
       <c r="V286" s="89"/>
     </row>
-    <row r="287" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B287" s="36">
         <v>23</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="U287" s="89"/>
       <c r="V287" s="89"/>
     </row>
-    <row r="288" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B288" s="36">
         <v>23</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="U288" s="89"/>
       <c r="V288" s="89"/>
     </row>
-    <row r="289" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B289" s="39">
         <v>23</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="U289" s="89"/>
       <c r="V289" s="89"/>
     </row>
-    <row r="290" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B290" s="36">
         <v>23</v>
       </c>
@@ -16105,7 +16105,7 @@
       <c r="U290" s="89"/>
       <c r="V290" s="89"/>
     </row>
-    <row r="291" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B291" s="36">
         <v>23</v>
       </c>
@@ -16154,7 +16154,7 @@
       <c r="U291" s="89"/>
       <c r="V291" s="89"/>
     </row>
-    <row r="292" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B292" s="36">
         <v>23</v>
       </c>
@@ -16201,7 +16201,7 @@
       <c r="U292" s="89"/>
       <c r="V292" s="89"/>
     </row>
-    <row r="293" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B293" s="39">
         <v>23</v>
       </c>
@@ -16248,7 +16248,7 @@
       <c r="U293" s="89"/>
       <c r="V293" s="89"/>
     </row>
-    <row r="294" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B294" s="36">
         <v>23</v>
       </c>
@@ -16295,7 +16295,7 @@
       <c r="U294" s="89"/>
       <c r="V294" s="89"/>
     </row>
-    <row r="295" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B295" s="36">
         <v>23</v>
       </c>
@@ -16342,7 +16342,7 @@
       <c r="U295" s="89"/>
       <c r="V295" s="89"/>
     </row>
-    <row r="296" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B296" s="36">
         <v>23</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="U296" s="89"/>
       <c r="V296" s="89"/>
     </row>
-    <row r="297" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B297" s="39">
         <v>23</v>
       </c>
@@ -16436,7 +16436,7 @@
       <c r="U297" s="89"/>
       <c r="V297" s="89"/>
     </row>
-    <row r="298" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B298" s="36">
         <v>23</v>
       </c>
@@ -16483,7 +16483,7 @@
       <c r="U298" s="89"/>
       <c r="V298" s="89"/>
     </row>
-    <row r="299" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B299" s="36">
         <v>23</v>
       </c>
@@ -16530,7 +16530,7 @@
       <c r="U299" s="89"/>
       <c r="V299" s="89"/>
     </row>
-    <row r="300" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B300" s="36">
         <v>23</v>
       </c>
@@ -16579,7 +16579,7 @@
       <c r="U300" s="89"/>
       <c r="V300" s="89"/>
     </row>
-    <row r="301" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="39">
         <v>23</v>
       </c>
@@ -16626,7 +16626,7 @@
       <c r="U301" s="89"/>
       <c r="V301" s="89"/>
     </row>
-    <row r="302" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B302" s="36">
         <v>23</v>
       </c>
@@ -16673,7 +16673,7 @@
       <c r="U302" s="89"/>
       <c r="V302" s="89"/>
     </row>
-    <row r="303" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B303" s="36">
         <v>23</v>
       </c>
@@ -16720,7 +16720,7 @@
       <c r="U303" s="89"/>
       <c r="V303" s="89"/>
     </row>
-    <row r="304" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="36">
         <v>23</v>
       </c>
@@ -16767,7 +16767,7 @@
       <c r="U304" s="89"/>
       <c r="V304" s="89"/>
     </row>
-    <row r="305" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="39">
         <v>23</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="306" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B306" s="51">
         <v>23</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="307" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B307" s="32">
         <v>23</v>
       </c>
@@ -16944,7 +16944,7 @@
       <c r="U307" s="89"/>
       <c r="V307" s="89"/>
     </row>
-    <row r="308" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B308" s="32">
         <v>23</v>
       </c>
@@ -16991,7 +16991,7 @@
       <c r="U308" s="89"/>
       <c r="V308" s="89"/>
     </row>
-    <row r="309" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="32">
         <v>23</v>
       </c>
@@ -17038,7 +17038,7 @@
       <c r="U309" s="89"/>
       <c r="V309" s="89"/>
     </row>
-    <row r="310" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B310" s="32">
         <v>23</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="311" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B311" s="32">
         <v>23</v>
       </c>
@@ -17150,7 +17150,7 @@
       <c r="U311" s="89"/>
       <c r="V311" s="89"/>
     </row>
-    <row r="312" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B312" s="32">
         <v>23</v>
       </c>
@@ -17197,7 +17197,7 @@
       <c r="U312" s="89"/>
       <c r="V312" s="89"/>
     </row>
-    <row r="313" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B313" s="32">
         <v>23</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="U313" s="89"/>
       <c r="V313" s="89"/>
     </row>
-    <row r="314" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="32">
         <v>23</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="U314" s="89"/>
       <c r="V314" s="89"/>
     </row>
-    <row r="315" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B315" s="32">
         <v>23</v>
       </c>
@@ -17338,7 +17338,7 @@
       <c r="U315" s="89"/>
       <c r="V315" s="89"/>
     </row>
-    <row r="316" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B316" s="32">
         <v>23</v>
       </c>
@@ -17385,7 +17385,7 @@
       <c r="U316" s="89"/>
       <c r="V316" s="89"/>
     </row>
-    <row r="317" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B317" s="32">
         <v>23</v>
       </c>
@@ -17432,7 +17432,7 @@
       <c r="U317" s="89"/>
       <c r="V317" s="89"/>
     </row>
-    <row r="318" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B318" s="32">
         <v>23</v>
       </c>
@@ -17481,7 +17481,7 @@
       <c r="U318" s="89"/>
       <c r="V318" s="89"/>
     </row>
-    <row r="319" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B319" s="32">
         <v>23</v>
       </c>
@@ -17528,7 +17528,7 @@
       <c r="U319" s="89"/>
       <c r="V319" s="89"/>
     </row>
-    <row r="320" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B320" s="32">
         <v>23</v>
       </c>
@@ -17575,7 +17575,7 @@
       <c r="U320" s="89"/>
       <c r="V320" s="89"/>
     </row>
-    <row r="321" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B321" s="32">
         <v>23</v>
       </c>
@@ -17622,7 +17622,7 @@
       <c r="U321" s="89"/>
       <c r="V321" s="89"/>
     </row>
-    <row r="322" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B322" s="32">
         <v>23</v>
       </c>
@@ -17669,7 +17669,7 @@
       <c r="U322" s="89"/>
       <c r="V322" s="89"/>
     </row>
-    <row r="323" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B323" s="32">
         <v>23</v>
       </c>
@@ -17716,7 +17716,7 @@
       <c r="U323" s="89"/>
       <c r="V323" s="89"/>
     </row>
-    <row r="324" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B324" s="32">
         <v>23</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="U324" s="89"/>
       <c r="V324" s="89"/>
     </row>
-    <row r="325" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B325" s="32">
         <v>23</v>
       </c>
@@ -17810,7 +17810,7 @@
       <c r="U325" s="89"/>
       <c r="V325" s="89"/>
     </row>
-    <row r="326" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B326" s="32">
         <v>23</v>
       </c>
@@ -17857,7 +17857,7 @@
       <c r="U326" s="89"/>
       <c r="V326" s="89"/>
     </row>
-    <row r="327" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B327" s="32">
         <v>23</v>
       </c>
@@ -17906,7 +17906,7 @@
       <c r="U327" s="89"/>
       <c r="V327" s="89"/>
     </row>
-    <row r="328" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="32">
         <v>23</v>
       </c>
@@ -17953,7 +17953,7 @@
       <c r="U328" s="89"/>
       <c r="V328" s="89"/>
     </row>
-    <row r="329" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B329" s="32">
         <v>23</v>
       </c>
@@ -18000,7 +18000,7 @@
       <c r="U329" s="89"/>
       <c r="V329" s="89"/>
     </row>
-    <row r="330" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B330" s="32">
         <v>23</v>
       </c>
@@ -18047,7 +18047,7 @@
       <c r="U330" s="89"/>
       <c r="V330" s="89"/>
     </row>
-    <row r="331" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B331" s="32">
         <v>23</v>
       </c>
@@ -18094,7 +18094,7 @@
       <c r="U331" s="89"/>
       <c r="V331" s="89"/>
     </row>
-    <row r="332" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B332" s="32">
         <v>23</v>
       </c>
@@ -18141,7 +18141,7 @@
       <c r="U332" s="89"/>
       <c r="V332" s="89"/>
     </row>
-    <row r="333" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B333" s="32">
         <v>23</v>
       </c>
@@ -18188,7 +18188,7 @@
       <c r="U333" s="89"/>
       <c r="V333" s="89"/>
     </row>
-    <row r="334" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B334" s="32">
         <v>23</v>
       </c>
@@ -18235,7 +18235,7 @@
       <c r="U334" s="89"/>
       <c r="V334" s="89"/>
     </row>
-    <row r="335" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B335" s="32">
         <v>23</v>
       </c>
@@ -18282,7 +18282,7 @@
       <c r="U335" s="89"/>
       <c r="V335" s="89"/>
     </row>
-    <row r="336" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B336" s="32">
         <v>23</v>
       </c>
@@ -18329,7 +18329,7 @@
       <c r="U336" s="89"/>
       <c r="V336" s="89"/>
     </row>
-    <row r="337" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B337" s="32">
         <v>23</v>
       </c>
@@ -18378,7 +18378,7 @@
       <c r="U337" s="89"/>
       <c r="V337" s="89"/>
     </row>
-    <row r="338" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B338" s="32">
         <v>23</v>
       </c>
@@ -18425,7 +18425,7 @@
       <c r="U338" s="89"/>
       <c r="V338" s="89"/>
     </row>
-    <row r="339" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B339" s="32">
         <v>23</v>
       </c>
@@ -18472,7 +18472,7 @@
       <c r="U339" s="89"/>
       <c r="V339" s="89"/>
     </row>
-    <row r="340" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="32">
         <v>23</v>
       </c>
@@ -18519,7 +18519,7 @@
       <c r="U340" s="89"/>
       <c r="V340" s="89"/>
     </row>
-    <row r="341" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B341" s="32">
         <v>23</v>
       </c>
@@ -18566,7 +18566,7 @@
       <c r="U341" s="89"/>
       <c r="V341" s="89"/>
     </row>
-    <row r="342" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B342" s="32">
         <v>23</v>
       </c>
@@ -18613,7 +18613,7 @@
       <c r="U342" s="89"/>
       <c r="V342" s="89"/>
     </row>
-    <row r="343" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B343" s="32">
         <v>23</v>
       </c>
@@ -18660,7 +18660,7 @@
       <c r="U343" s="89"/>
       <c r="V343" s="89"/>
     </row>
-    <row r="344" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B344" s="32">
         <v>23</v>
       </c>
@@ -18709,7 +18709,7 @@
       <c r="U344" s="89"/>
       <c r="V344" s="89"/>
     </row>
-    <row r="345" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B345" s="32">
         <v>23</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="U345" s="89"/>
       <c r="V345" s="89"/>
     </row>
-    <row r="346" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B346" s="32">
         <v>23</v>
       </c>
@@ -18803,7 +18803,7 @@
       <c r="U346" s="89"/>
       <c r="V346" s="89"/>
     </row>
-    <row r="347" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B347" s="32">
         <v>23</v>
       </c>
@@ -18850,7 +18850,7 @@
       <c r="U347" s="89"/>
       <c r="V347" s="89"/>
     </row>
-    <row r="348" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B348" s="32">
         <v>23</v>
       </c>
@@ -18897,7 +18897,7 @@
       <c r="U348" s="89"/>
       <c r="V348" s="89"/>
     </row>
-    <row r="349" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B349" s="32">
         <v>23</v>
       </c>
@@ -18944,7 +18944,7 @@
       <c r="U349" s="89"/>
       <c r="V349" s="89"/>
     </row>
-    <row r="350" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B350" s="32">
         <v>23</v>
       </c>
@@ -18991,7 +18991,7 @@
       <c r="U350" s="89"/>
       <c r="V350" s="89"/>
     </row>
-    <row r="351" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B351" s="32">
         <v>23</v>
       </c>
@@ -19038,7 +19038,7 @@
       <c r="U351" s="89"/>
       <c r="V351" s="89"/>
     </row>
-    <row r="352" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B352" s="32">
         <v>23</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="U352" s="89"/>
       <c r="V352" s="89"/>
     </row>
-    <row r="353" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B353" s="32">
         <v>23</v>
       </c>
@@ -19132,7 +19132,7 @@
       <c r="U353" s="89"/>
       <c r="V353" s="89"/>
     </row>
-    <row r="354" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="32">
         <v>23</v>
       </c>
@@ -19181,7 +19181,7 @@
       <c r="U354" s="89"/>
       <c r="V354" s="89"/>
     </row>
-    <row r="355" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B355" s="32">
         <v>23</v>
       </c>
@@ -19230,7 +19230,7 @@
       <c r="U355" s="89"/>
       <c r="V355" s="89"/>
     </row>
-    <row r="356" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B356" s="32">
         <v>23</v>
       </c>
@@ -19277,7 +19277,7 @@
       <c r="U356" s="89"/>
       <c r="V356" s="89"/>
     </row>
-    <row r="357" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="32">
         <v>23</v>
       </c>
@@ -19324,7 +19324,7 @@
       <c r="U357" s="89"/>
       <c r="V357" s="89"/>
     </row>
-    <row r="358" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B358" s="32">
         <v>23</v>
       </c>
@@ -19371,7 +19371,7 @@
       <c r="U358" s="89"/>
       <c r="V358" s="89"/>
     </row>
-    <row r="359" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B359" s="32">
         <v>23</v>
       </c>
@@ -19418,7 +19418,7 @@
       <c r="U359" s="89"/>
       <c r="V359" s="89"/>
     </row>
-    <row r="360" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B360" s="32">
         <v>23</v>
       </c>
@@ -19465,7 +19465,7 @@
       <c r="U360" s="89"/>
       <c r="V360" s="89"/>
     </row>
-    <row r="361" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B361" s="32">
         <v>23</v>
       </c>
@@ -19512,7 +19512,7 @@
       <c r="U361" s="89"/>
       <c r="V361" s="89"/>
     </row>
-    <row r="362" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="32">
         <v>23</v>
       </c>
@@ -19561,7 +19561,7 @@
       <c r="U362" s="89"/>
       <c r="V362" s="89"/>
     </row>
-    <row r="363" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B363" s="32">
         <v>23</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="U363" s="89"/>
       <c r="V363" s="89"/>
     </row>
-    <row r="364" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B364" s="32">
         <v>23</v>
       </c>
@@ -19657,7 +19657,7 @@
       <c r="U364" s="89"/>
       <c r="V364" s="89"/>
     </row>
-    <row r="365" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B365" s="32">
         <v>23</v>
       </c>
@@ -19704,7 +19704,7 @@
       <c r="U365" s="89"/>
       <c r="V365" s="89"/>
     </row>
-    <row r="366" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B366" s="32">
         <v>23</v>
       </c>
@@ -19751,7 +19751,7 @@
       <c r="U366" s="89"/>
       <c r="V366" s="89"/>
     </row>
-    <row r="367" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B367" s="32">
         <v>23</v>
       </c>
@@ -19798,7 +19798,7 @@
       <c r="U367" s="89"/>
       <c r="V367" s="89"/>
     </row>
-    <row r="368" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B368" s="32">
         <v>23</v>
       </c>
@@ -19845,7 +19845,7 @@
       <c r="U368" s="89"/>
       <c r="V368" s="89"/>
     </row>
-    <row r="369" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B369" s="32">
         <v>23</v>
       </c>
@@ -19892,7 +19892,7 @@
       <c r="U369" s="89"/>
       <c r="V369" s="89"/>
     </row>
-    <row r="370" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B370" s="32">
         <v>23</v>
       </c>
@@ -19939,7 +19939,7 @@
       <c r="U370" s="89"/>
       <c r="V370" s="89"/>
     </row>
-    <row r="371" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B371" s="32">
         <v>23</v>
       </c>
@@ -19986,7 +19986,7 @@
       <c r="U371" s="89"/>
       <c r="V371" s="89"/>
     </row>
-    <row r="372" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B372" s="32">
         <v>23</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="373" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B373" s="32">
         <v>23</v>
       </c>
@@ -20098,7 +20098,7 @@
       <c r="U373" s="89"/>
       <c r="V373" s="89"/>
     </row>
-    <row r="374" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B374" s="32">
         <v>23</v>
       </c>
@@ -20145,7 +20145,7 @@
       <c r="U374" s="89"/>
       <c r="V374" s="89"/>
     </row>
-    <row r="375" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B375" s="32">
         <v>23</v>
       </c>
@@ -20192,7 +20192,7 @@
       <c r="U375" s="89"/>
       <c r="V375" s="89"/>
     </row>
-    <row r="376" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="53">
         <v>23</v>
       </c>
@@ -20237,7 +20237,7 @@
       <c r="U376" s="89"/>
       <c r="V376" s="89"/>
     </row>
-    <row r="377" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B377" s="32">
         <v>23</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="U377" s="89"/>
       <c r="V377" s="89"/>
     </row>
-    <row r="378" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B378" s="32">
         <v>23</v>
       </c>
@@ -20331,7 +20331,7 @@
       <c r="U378" s="89"/>
       <c r="V378" s="89"/>
     </row>
-    <row r="379" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B379" s="32">
         <v>23</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="380" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="32">
         <v>23</v>
       </c>
@@ -20443,7 +20443,7 @@
       <c r="U380" s="89"/>
       <c r="V380" s="89"/>
     </row>
-    <row r="381" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B381" s="32">
         <v>23</v>
       </c>
@@ -20490,7 +20490,7 @@
       <c r="U381" s="89"/>
       <c r="V381" s="89"/>
     </row>
-    <row r="382" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B382" s="32">
         <v>23</v>
       </c>
@@ -20537,7 +20537,7 @@
       <c r="U382" s="89"/>
       <c r="V382" s="89"/>
     </row>
-    <row r="383" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B383" s="32">
         <v>23</v>
       </c>
@@ -20584,7 +20584,7 @@
       <c r="U383" s="89"/>
       <c r="V383" s="89"/>
     </row>
-    <row r="384" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B384" s="32">
         <v>23</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="385" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B385" s="32">
         <v>23</v>
       </c>
@@ -20696,7 +20696,7 @@
       <c r="U385" s="89"/>
       <c r="V385" s="89"/>
     </row>
-    <row r="386" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B386" s="32">
         <v>23</v>
       </c>
@@ -20743,7 +20743,7 @@
       <c r="U386" s="89"/>
       <c r="V386" s="89"/>
     </row>
-    <row r="387" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B387" s="32">
         <v>23</v>
       </c>
@@ -20790,7 +20790,7 @@
       <c r="U387" s="89"/>
       <c r="V387" s="89"/>
     </row>
-    <row r="388" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B388" s="32">
         <v>23</v>
       </c>
@@ -20839,7 +20839,7 @@
       <c r="U388" s="89"/>
       <c r="V388" s="89"/>
     </row>
-    <row r="389" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B389" s="32">
         <v>23</v>
       </c>
@@ -20886,7 +20886,7 @@
       <c r="U389" s="89"/>
       <c r="V389" s="89"/>
     </row>
-    <row r="390" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B390" s="32">
         <v>23</v>
       </c>
@@ -20933,7 +20933,7 @@
       <c r="U390" s="89"/>
       <c r="V390" s="89"/>
     </row>
-    <row r="391" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B391" s="32">
         <v>23</v>
       </c>
@@ -20980,7 +20980,7 @@
       <c r="U391" s="89"/>
       <c r="V391" s="89"/>
     </row>
-    <row r="392" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B392" s="32">
         <v>23</v>
       </c>
@@ -21027,7 +21027,7 @@
       <c r="U392" s="89"/>
       <c r="V392" s="89"/>
     </row>
-    <row r="393" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B393" s="32">
         <v>23</v>
       </c>
@@ -21076,7 +21076,7 @@
       <c r="U393" s="89"/>
       <c r="V393" s="89"/>
     </row>
-    <row r="394" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B394" s="32">
         <v>23</v>
       </c>
@@ -21125,7 +21125,7 @@
       <c r="U394" s="89"/>
       <c r="V394" s="89"/>
     </row>
-    <row r="395" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B395" s="32">
         <v>23</v>
       </c>
@@ -21174,7 +21174,7 @@
       <c r="U395" s="89"/>
       <c r="V395" s="89"/>
     </row>
-    <row r="396" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B396" s="32">
         <v>23</v>
       </c>
@@ -21221,7 +21221,7 @@
       <c r="U396" s="89"/>
       <c r="V396" s="89"/>
     </row>
-    <row r="397" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B397" s="32">
         <v>23</v>
       </c>
@@ -21268,7 +21268,7 @@
       <c r="U397" s="89"/>
       <c r="V397" s="89"/>
     </row>
-    <row r="398" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B398" s="32">
         <v>23</v>
       </c>
@@ -21315,7 +21315,7 @@
       <c r="U398" s="89"/>
       <c r="V398" s="89"/>
     </row>
-    <row r="399" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B399" s="32">
         <v>23</v>
       </c>
@@ -21362,7 +21362,7 @@
       <c r="U399" s="89"/>
       <c r="V399" s="89"/>
     </row>
-    <row r="400" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B400" s="32">
         <v>23</v>
       </c>
@@ -21409,7 +21409,7 @@
       <c r="U400" s="89"/>
       <c r="V400" s="89"/>
     </row>
-    <row r="401" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B401" s="32">
         <v>23</v>
       </c>
@@ -21456,7 +21456,7 @@
       <c r="U401" s="89"/>
       <c r="V401" s="89"/>
     </row>
-    <row r="402" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B402" s="32">
         <v>23</v>
       </c>
@@ -21503,7 +21503,7 @@
       <c r="U402" s="89"/>
       <c r="V402" s="89"/>
     </row>
-    <row r="403" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B403" s="32">
         <v>23</v>
       </c>
@@ -21550,7 +21550,7 @@
       <c r="U403" s="89"/>
       <c r="V403" s="89"/>
     </row>
-    <row r="404" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B404" s="32">
         <v>23</v>
       </c>
@@ -21597,7 +21597,7 @@
       <c r="U404" s="89"/>
       <c r="V404" s="89"/>
     </row>
-    <row r="405" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B405" s="32">
         <v>23</v>
       </c>
@@ -21646,7 +21646,7 @@
       <c r="U405" s="89"/>
       <c r="V405" s="89"/>
     </row>
-    <row r="406" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B406" s="32">
         <v>23</v>
       </c>
@@ -21693,7 +21693,7 @@
       <c r="U406" s="89"/>
       <c r="V406" s="89"/>
     </row>
-    <row r="407" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B407" s="32">
         <v>23</v>
       </c>
@@ -21742,7 +21742,7 @@
       <c r="U407" s="89"/>
       <c r="V407" s="89"/>
     </row>
-    <row r="408" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B408" s="32">
         <v>23</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="409" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B409" s="32">
         <v>23</v>
       </c>
@@ -21848,7 +21848,7 @@
       <c r="U409" s="89"/>
       <c r="V409" s="89"/>
     </row>
-    <row r="410" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B410" s="32">
         <v>23</v>
       </c>
@@ -21897,7 +21897,7 @@
       <c r="U410" s="89"/>
       <c r="V410" s="89"/>
     </row>
-    <row r="411" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B411" s="32">
         <v>23</v>
       </c>
@@ -21940,7 +21940,7 @@
       <c r="U411" s="89"/>
       <c r="V411" s="89"/>
     </row>
-    <row r="412" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B412" s="32">
         <v>23</v>
       </c>
@@ -21987,7 +21987,7 @@
       <c r="U412" s="89"/>
       <c r="V412" s="89"/>
     </row>
-    <row r="413" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B413" s="32">
         <v>23</v>
       </c>
@@ -22034,7 +22034,7 @@
       <c r="U413" s="89"/>
       <c r="V413" s="89"/>
     </row>
-    <row r="414" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B414" s="32">
         <v>23</v>
       </c>
@@ -22081,7 +22081,7 @@
       <c r="U414" s="89"/>
       <c r="V414" s="89"/>
     </row>
-    <row r="415" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B415" s="32">
         <v>23</v>
       </c>
@@ -22128,7 +22128,7 @@
       <c r="U415" s="89"/>
       <c r="V415" s="89"/>
     </row>
-    <row r="416" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B416" s="32">
         <v>23</v>
       </c>
@@ -22175,7 +22175,7 @@
       <c r="U416" s="89"/>
       <c r="V416" s="89"/>
     </row>
-    <row r="417" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B417" s="32">
         <v>23</v>
       </c>
@@ -22222,7 +22222,7 @@
       <c r="U417" s="89"/>
       <c r="V417" s="89"/>
     </row>
-    <row r="418" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B418" s="32">
         <v>23</v>
       </c>
@@ -22269,7 +22269,7 @@
       <c r="U418" s="89"/>
       <c r="V418" s="89"/>
     </row>
-    <row r="419" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B419" s="32">
         <v>23</v>
       </c>
@@ -22316,7 +22316,7 @@
       <c r="U419" s="89"/>
       <c r="V419" s="89"/>
     </row>
-    <row r="420" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B420" s="32">
         <v>23</v>
       </c>
@@ -22363,7 +22363,7 @@
       <c r="U420" s="89"/>
       <c r="V420" s="89"/>
     </row>
-    <row r="421" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B421" s="32">
         <v>23</v>
       </c>
@@ -22410,7 +22410,7 @@
       <c r="U421" s="89"/>
       <c r="V421" s="89"/>
     </row>
-    <row r="422" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B422" s="32">
         <v>23</v>
       </c>
@@ -22457,7 +22457,7 @@
       <c r="U422" s="89"/>
       <c r="V422" s="89"/>
     </row>
-    <row r="423" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B423" s="32">
         <v>23</v>
       </c>
@@ -22504,7 +22504,7 @@
       <c r="U423" s="89"/>
       <c r="V423" s="89"/>
     </row>
-    <row r="424" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B424" s="32">
         <v>23</v>
       </c>
@@ -22551,7 +22551,7 @@
       <c r="U424" s="89"/>
       <c r="V424" s="89"/>
     </row>
-    <row r="425" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B425" s="32">
         <v>23</v>
       </c>
@@ -22600,7 +22600,7 @@
       <c r="U425" s="89"/>
       <c r="V425" s="89"/>
     </row>
-    <row r="426" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B426" s="32">
         <v>23</v>
       </c>
@@ -22647,7 +22647,7 @@
       <c r="U426" s="89"/>
       <c r="V426" s="89"/>
     </row>
-    <row r="427" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B427" s="32">
         <v>23</v>
       </c>
@@ -22694,7 +22694,7 @@
       <c r="U427" s="89"/>
       <c r="V427" s="89"/>
     </row>
-    <row r="428" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B428" s="32">
         <v>23</v>
       </c>
@@ -22741,7 +22741,7 @@
       <c r="U428" s="89"/>
       <c r="V428" s="89"/>
     </row>
-    <row r="429" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B429" s="32">
         <v>23</v>
       </c>
@@ -22788,7 +22788,7 @@
       <c r="U429" s="89"/>
       <c r="V429" s="89"/>
     </row>
-    <row r="430" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B430" s="32">
         <v>23</v>
       </c>
@@ -22837,7 +22837,7 @@
       <c r="U430" s="89"/>
       <c r="V430" s="89"/>
     </row>
-    <row r="431" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B431" s="32">
         <v>23</v>
       </c>
@@ -22886,7 +22886,7 @@
       <c r="U431" s="89"/>
       <c r="V431" s="89"/>
     </row>
-    <row r="432" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B432" s="32">
         <v>23</v>
       </c>
@@ -22933,7 +22933,7 @@
       <c r="U432" s="89"/>
       <c r="V432" s="89"/>
     </row>
-    <row r="433" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B433" s="32">
         <v>23</v>
       </c>
@@ -22980,7 +22980,7 @@
       <c r="U433" s="89"/>
       <c r="V433" s="89"/>
     </row>
-    <row r="434" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B434" s="32">
         <v>23</v>
       </c>
@@ -23027,7 +23027,7 @@
       <c r="U434" s="89"/>
       <c r="V434" s="89"/>
     </row>
-    <row r="435" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B435" s="32">
         <v>23</v>
       </c>
@@ -23074,7 +23074,7 @@
       <c r="U435" s="89"/>
       <c r="V435" s="89"/>
     </row>
-    <row r="436" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B436" s="32">
         <v>23</v>
       </c>
@@ -23121,7 +23121,7 @@
       <c r="U436" s="89"/>
       <c r="V436" s="89"/>
     </row>
-    <row r="437" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B437" s="32">
         <v>23</v>
       </c>
@@ -23168,7 +23168,7 @@
       <c r="U437" s="89"/>
       <c r="V437" s="89"/>
     </row>
-    <row r="438" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B438" s="32">
         <v>23</v>
       </c>
@@ -23215,7 +23215,7 @@
       <c r="U438" s="89"/>
       <c r="V438" s="89"/>
     </row>
-    <row r="439" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B439" s="32">
         <v>23</v>
       </c>
@@ -23262,7 +23262,7 @@
       <c r="U439" s="89"/>
       <c r="V439" s="89"/>
     </row>
-    <row r="440" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B440" s="32">
         <v>23</v>
       </c>
@@ -23311,7 +23311,7 @@
       <c r="U440" s="89"/>
       <c r="V440" s="89"/>
     </row>
-    <row r="441" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="32">
         <v>23</v>
       </c>
@@ -23358,7 +23358,7 @@
       <c r="U441" s="89"/>
       <c r="V441" s="89"/>
     </row>
-    <row r="442" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="32">
         <v>23</v>
       </c>
@@ -23405,7 +23405,7 @@
       <c r="U442" s="89"/>
       <c r="V442" s="89"/>
     </row>
-    <row r="443" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B443" s="32">
         <v>23</v>
       </c>
@@ -23452,7 +23452,7 @@
       <c r="U443" s="89"/>
       <c r="V443" s="89"/>
     </row>
-    <row r="444" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B444" s="32">
         <v>23</v>
       </c>
@@ -23499,7 +23499,7 @@
       <c r="U444" s="89"/>
       <c r="V444" s="89"/>
     </row>
-    <row r="445" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B445" s="32">
         <v>23</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="446" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B446" s="36">
         <v>23</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="447" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B447" s="56">
         <v>23</v>
       </c>
@@ -23676,7 +23676,7 @@
       <c r="U447" s="89"/>
       <c r="V447" s="89"/>
     </row>
-    <row r="448" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B448" s="32">
         <v>23</v>
       </c>
@@ -23723,7 +23723,7 @@
       <c r="U448" s="89"/>
       <c r="V448" s="89"/>
     </row>
-    <row r="449" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B449" s="32">
         <v>23</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B450" s="32">
         <v>23</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B451" s="32">
         <v>23</v>
       </c>
@@ -23900,7 +23900,7 @@
       <c r="U451" s="89"/>
       <c r="V451" s="89"/>
     </row>
-    <row r="452" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B452" s="32">
         <v>23</v>
       </c>
@@ -23947,7 +23947,7 @@
       <c r="U452" s="89"/>
       <c r="V452" s="89"/>
     </row>
-    <row r="453" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B453" s="32">
         <v>23</v>
       </c>
@@ -23994,7 +23994,7 @@
       <c r="U453" s="89"/>
       <c r="V453" s="89"/>
     </row>
-    <row r="454" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="32">
         <v>23</v>
       </c>
@@ -24041,7 +24041,7 @@
       <c r="U454" s="93"/>
       <c r="V454" s="93"/>
     </row>
-    <row r="455" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="32">
         <v>23</v>
       </c>
@@ -24090,7 +24090,7 @@
       <c r="U455" s="93"/>
       <c r="V455" s="93"/>
     </row>
-    <row r="456" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B456" s="32">
         <v>23</v>
       </c>
@@ -24137,7 +24137,7 @@
       <c r="U456" s="89"/>
       <c r="V456" s="89"/>
     </row>
-    <row r="457" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B457" s="32">
         <v>23</v>
       </c>
@@ -24184,7 +24184,7 @@
       <c r="U457" s="89"/>
       <c r="V457" s="89"/>
     </row>
-    <row r="458" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B458" s="32">
         <v>23</v>
       </c>
@@ -24231,7 +24231,7 @@
       <c r="U458" s="89"/>
       <c r="V458" s="89"/>
     </row>
-    <row r="459" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="32">
         <v>23</v>
       </c>
@@ -24280,7 +24280,7 @@
       <c r="U459" s="89"/>
       <c r="V459" s="89"/>
     </row>
-    <row r="460" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B460" s="32">
         <v>23</v>
       </c>
@@ -24327,7 +24327,7 @@
       <c r="U460" s="89"/>
       <c r="V460" s="89"/>
     </row>
-    <row r="461" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B461" s="32">
         <v>23</v>
       </c>
@@ -24374,7 +24374,7 @@
       <c r="U461" s="89"/>
       <c r="V461" s="89"/>
     </row>
-    <row r="462" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B462" s="32">
         <v>23</v>
       </c>
@@ -24421,7 +24421,7 @@
       <c r="U462" s="89"/>
       <c r="V462" s="89"/>
     </row>
-    <row r="463" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B463" s="32">
         <v>23</v>
       </c>
@@ -24468,7 +24468,7 @@
       <c r="U463" s="89"/>
       <c r="V463" s="89"/>
     </row>
-    <row r="464" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B464" s="32">
         <v>23</v>
       </c>
@@ -24515,7 +24515,7 @@
       <c r="U464" s="89"/>
       <c r="V464" s="89"/>
     </row>
-    <row r="465" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B465" s="32">
         <v>23</v>
       </c>
@@ -24562,7 +24562,7 @@
       <c r="U465" s="89"/>
       <c r="V465" s="89"/>
     </row>
-    <row r="466" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B466" s="32">
         <v>23</v>
       </c>
@@ -24609,7 +24609,7 @@
       <c r="U466" s="89"/>
       <c r="V466" s="89"/>
     </row>
-    <row r="467" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B467" s="32">
         <v>23</v>
       </c>
@@ -24656,7 +24656,7 @@
       <c r="U467" s="89"/>
       <c r="V467" s="89"/>
     </row>
-    <row r="468" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B468" s="32">
         <v>23</v>
       </c>
@@ -24703,7 +24703,7 @@
       <c r="U468" s="89"/>
       <c r="V468" s="89"/>
     </row>
-    <row r="469" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B469" s="32">
         <v>23</v>
       </c>
@@ -24750,7 +24750,7 @@
       <c r="U469" s="89"/>
       <c r="V469" s="89"/>
     </row>
-    <row r="470" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B470" s="32">
         <v>23</v>
       </c>
@@ -24797,7 +24797,7 @@
       <c r="U470" s="89"/>
       <c r="V470" s="89"/>
     </row>
-    <row r="471" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B471" s="32">
         <v>23</v>
       </c>
@@ -24844,7 +24844,7 @@
       <c r="U471" s="89"/>
       <c r="V471" s="89"/>
     </row>
-    <row r="472" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B472" s="32">
         <v>23</v>
       </c>
@@ -24891,7 +24891,7 @@
       <c r="U472" s="89"/>
       <c r="V472" s="89"/>
     </row>
-    <row r="473" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B473" s="32">
         <v>23</v>
       </c>
@@ -24938,7 +24938,7 @@
       <c r="U473" s="89"/>
       <c r="V473" s="89"/>
     </row>
-    <row r="474" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B474" s="32">
         <v>23</v>
       </c>
@@ -24985,7 +24985,7 @@
       <c r="U474" s="89"/>
       <c r="V474" s="89"/>
     </row>
-    <row r="475" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B475" s="32">
         <v>23</v>
       </c>
@@ -25032,7 +25032,7 @@
       <c r="U475" s="89"/>
       <c r="V475" s="89"/>
     </row>
-    <row r="476" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B476" s="32">
         <v>23</v>
       </c>
@@ -25079,7 +25079,7 @@
       <c r="U476" s="89"/>
       <c r="V476" s="89"/>
     </row>
-    <row r="477" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B477" s="32">
         <v>23</v>
       </c>
@@ -25126,7 +25126,7 @@
       <c r="U477" s="89"/>
       <c r="V477" s="89"/>
     </row>
-    <row r="478" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B478" s="32">
         <v>23</v>
       </c>
@@ -25173,7 +25173,7 @@
       <c r="U478" s="89"/>
       <c r="V478" s="89"/>
     </row>
-    <row r="479" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B479" s="32">
         <v>23</v>
       </c>
@@ -25220,7 +25220,7 @@
       <c r="U479" s="89"/>
       <c r="V479" s="89"/>
     </row>
-    <row r="480" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B480" s="32">
         <v>23</v>
       </c>
@@ -25267,7 +25267,7 @@
       <c r="U480" s="89"/>
       <c r="V480" s="89"/>
     </row>
-    <row r="481" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B481" s="32">
         <v>23</v>
       </c>
@@ -25314,7 +25314,7 @@
       <c r="U481" s="89"/>
       <c r="V481" s="89"/>
     </row>
-    <row r="482" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B482" s="32">
         <v>23</v>
       </c>
@@ -25361,7 +25361,7 @@
       <c r="U482" s="89"/>
       <c r="V482" s="89"/>
     </row>
-    <row r="483" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B483" s="32">
         <v>23</v>
       </c>
@@ -25408,7 +25408,7 @@
       <c r="U483" s="89"/>
       <c r="V483" s="89"/>
     </row>
-    <row r="484" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B484" s="32">
         <v>23</v>
       </c>
@@ -25455,7 +25455,7 @@
       <c r="U484" s="89"/>
       <c r="V484" s="89"/>
     </row>
-    <row r="485" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B485" s="32">
         <v>23</v>
       </c>
@@ -25502,7 +25502,7 @@
       <c r="U485" s="89"/>
       <c r="V485" s="89"/>
     </row>
-    <row r="486" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B486" s="32">
         <v>23</v>
       </c>
@@ -25549,7 +25549,7 @@
       <c r="U486" s="89"/>
       <c r="V486" s="89"/>
     </row>
-    <row r="487" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B487" s="32">
         <v>23</v>
       </c>
@@ -25596,7 +25596,7 @@
       <c r="U487" s="89"/>
       <c r="V487" s="89"/>
     </row>
-    <row r="488" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B488" s="32">
         <v>23</v>
       </c>
@@ -25643,7 +25643,7 @@
       <c r="U488" s="89"/>
       <c r="V488" s="89"/>
     </row>
-    <row r="489" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B489" s="32">
         <v>23</v>
       </c>
@@ -25690,7 +25690,7 @@
       <c r="U489" s="89"/>
       <c r="V489" s="89"/>
     </row>
-    <row r="490" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B490" s="32">
         <v>23</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="U490" s="89"/>
       <c r="V490" s="89"/>
     </row>
-    <row r="491" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B491" s="32">
         <v>23</v>
       </c>
@@ -25784,7 +25784,7 @@
       <c r="U491" s="89"/>
       <c r="V491" s="89"/>
     </row>
-    <row r="492" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B492" s="32">
         <v>23</v>
       </c>
@@ -25831,7 +25831,7 @@
       <c r="U492" s="89"/>
       <c r="V492" s="89"/>
     </row>
-    <row r="493" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B493" s="32">
         <v>23</v>
       </c>
@@ -25878,7 +25878,7 @@
       <c r="U493" s="89"/>
       <c r="V493" s="89"/>
     </row>
-    <row r="494" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B494" s="32">
         <v>23</v>
       </c>
@@ -25925,7 +25925,7 @@
       <c r="U494" s="89"/>
       <c r="V494" s="89"/>
     </row>
-    <row r="495" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B495" s="32">
         <v>23</v>
       </c>
@@ -25972,7 +25972,7 @@
       <c r="U495" s="89"/>
       <c r="V495" s="89"/>
     </row>
-    <row r="496" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B496" s="32">
         <v>23</v>
       </c>
@@ -26019,7 +26019,7 @@
       <c r="U496" s="89"/>
       <c r="V496" s="89"/>
     </row>
-    <row r="497" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B497" s="32">
         <v>23</v>
       </c>
@@ -26066,7 +26066,7 @@
       <c r="U497" s="89"/>
       <c r="V497" s="89"/>
     </row>
-    <row r="498" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B498" s="32">
         <v>23</v>
       </c>
@@ -26113,7 +26113,7 @@
       <c r="U498" s="89"/>
       <c r="V498" s="89"/>
     </row>
-    <row r="499" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B499" s="32">
         <v>23</v>
       </c>
@@ -26160,7 +26160,7 @@
       <c r="U499" s="89"/>
       <c r="V499" s="89"/>
     </row>
-    <row r="500" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B500" s="32">
         <v>23</v>
       </c>
@@ -26207,7 +26207,7 @@
       <c r="U500" s="89"/>
       <c r="V500" s="89"/>
     </row>
-    <row r="501" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B501" s="32">
         <v>23</v>
       </c>
@@ -26254,7 +26254,7 @@
       <c r="U501" s="89"/>
       <c r="V501" s="89"/>
     </row>
-    <row r="502" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="32">
         <v>23</v>
       </c>
@@ -26303,7 +26303,7 @@
       <c r="U502" s="89"/>
       <c r="V502" s="89"/>
     </row>
-    <row r="503" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B503" s="32">
         <v>23</v>
       </c>
@@ -26350,7 +26350,7 @@
       <c r="U503" s="89"/>
       <c r="V503" s="89"/>
     </row>
-    <row r="504" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B504" s="32">
         <v>23</v>
       </c>
@@ -26397,7 +26397,7 @@
       <c r="U504" s="89"/>
       <c r="V504" s="89"/>
     </row>
-    <row r="505" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B505" s="32">
         <v>23</v>
       </c>
@@ -26444,7 +26444,7 @@
       <c r="U505" s="89"/>
       <c r="V505" s="89"/>
     </row>
-    <row r="506" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B506" s="32">
         <v>23</v>
       </c>
@@ -26491,7 +26491,7 @@
       <c r="U506" s="89"/>
       <c r="V506" s="89"/>
     </row>
-    <row r="507" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B507" s="32">
         <v>23</v>
       </c>
@@ -26538,7 +26538,7 @@
       <c r="U507" s="89"/>
       <c r="V507" s="89"/>
     </row>
-    <row r="508" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B508" s="32">
         <v>23</v>
       </c>
@@ -26585,7 +26585,7 @@
       <c r="U508" s="89"/>
       <c r="V508" s="89"/>
     </row>
-    <row r="509" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B509" s="32">
         <v>23</v>
       </c>
@@ -26632,7 +26632,7 @@
       <c r="U509" s="89"/>
       <c r="V509" s="89"/>
     </row>
-    <row r="510" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B510" s="32">
         <v>23</v>
       </c>
@@ -26679,7 +26679,7 @@
       <c r="U510" s="89"/>
       <c r="V510" s="89"/>
     </row>
-    <row r="511" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B511" s="32">
         <v>23</v>
       </c>
@@ -26726,7 +26726,7 @@
       <c r="U511" s="89"/>
       <c r="V511" s="89"/>
     </row>
-    <row r="512" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B512" s="32">
         <v>23</v>
       </c>
@@ -26773,7 +26773,7 @@
       <c r="U512" s="89"/>
       <c r="V512" s="89"/>
     </row>
-    <row r="513" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B513" s="32">
         <v>23</v>
       </c>
@@ -26838,7 +26838,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="514" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B514" s="32">
         <v>23</v>
       </c>
@@ -26887,7 +26887,7 @@
       <c r="U514" s="93"/>
       <c r="V514" s="93"/>
     </row>
-    <row r="515" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="32">
         <v>23</v>
       </c>
@@ -26934,7 +26934,7 @@
       <c r="U515" s="89"/>
       <c r="V515" s="89"/>
     </row>
-    <row r="516" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B516" s="32">
         <v>23</v>
       </c>
@@ -26981,7 +26981,7 @@
       <c r="U516" s="89"/>
       <c r="V516" s="89"/>
     </row>
-    <row r="517" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B517" s="32">
         <v>23</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="518" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="32">
         <v>23</v>
       </c>
@@ -27093,7 +27093,7 @@
       <c r="U518" s="89"/>
       <c r="V518" s="89"/>
     </row>
-    <row r="519" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B519" s="32">
         <v>23</v>
       </c>
@@ -27142,7 +27142,7 @@
       <c r="U519" s="93"/>
       <c r="V519" s="93"/>
     </row>
-    <row r="520" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B520" s="32">
         <v>23</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="521" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B521" s="32">
         <v>23</v>
       </c>
@@ -27254,7 +27254,7 @@
       <c r="U521" s="89"/>
       <c r="V521" s="89"/>
     </row>
-    <row r="522" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B522" s="32">
         <v>23</v>
       </c>
@@ -27301,7 +27301,7 @@
       <c r="U522" s="89"/>
       <c r="V522" s="89"/>
     </row>
-    <row r="523" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B523" s="32">
         <v>23</v>
       </c>
@@ -27348,7 +27348,7 @@
       <c r="U523" s="89"/>
       <c r="V523" s="89"/>
     </row>
-    <row r="524" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B524" s="32">
         <v>23</v>
       </c>
@@ -27395,7 +27395,7 @@
       <c r="U524" s="89"/>
       <c r="V524" s="89"/>
     </row>
-    <row r="525" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B525" s="32">
         <v>23</v>
       </c>
@@ -27442,7 +27442,7 @@
       <c r="U525" s="89"/>
       <c r="V525" s="89"/>
     </row>
-    <row r="526" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B526" s="32">
         <v>23</v>
       </c>
@@ -27489,7 +27489,7 @@
       <c r="U526" s="89"/>
       <c r="V526" s="89"/>
     </row>
-    <row r="527" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B527" s="32">
         <v>23</v>
       </c>
@@ -27536,7 +27536,7 @@
       <c r="U527" s="89"/>
       <c r="V527" s="89"/>
     </row>
-    <row r="528" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B528" s="32">
         <v>23</v>
       </c>
@@ -27583,7 +27583,7 @@
       <c r="U528" s="89"/>
       <c r="V528" s="89"/>
     </row>
-    <row r="529" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B529" s="32">
         <v>23</v>
       </c>
@@ -27630,7 +27630,7 @@
       <c r="U529" s="89"/>
       <c r="V529" s="89"/>
     </row>
-    <row r="530" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B530" s="32">
         <v>23</v>
       </c>
@@ -27677,7 +27677,7 @@
       <c r="U530" s="89"/>
       <c r="V530" s="89"/>
     </row>
-    <row r="531" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B531" s="32">
         <v>23</v>
       </c>
@@ -27724,7 +27724,7 @@
       <c r="U531" s="89"/>
       <c r="V531" s="89"/>
     </row>
-    <row r="532" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B532" s="32">
         <v>23</v>
       </c>
@@ -27771,7 +27771,7 @@
       <c r="U532" s="89"/>
       <c r="V532" s="89"/>
     </row>
-    <row r="533" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B533" s="32">
         <v>23</v>
       </c>
@@ -27818,7 +27818,7 @@
       <c r="U533" s="89"/>
       <c r="V533" s="89"/>
     </row>
-    <row r="534" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B534" s="32">
         <v>23</v>
       </c>
@@ -27865,7 +27865,7 @@
       <c r="U534" s="89"/>
       <c r="V534" s="89"/>
     </row>
-    <row r="535" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B535" s="32">
         <v>23</v>
       </c>
@@ -27912,7 +27912,7 @@
       <c r="U535" s="89"/>
       <c r="V535" s="89"/>
     </row>
-    <row r="536" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B536" s="32">
         <v>23</v>
       </c>
@@ -27959,7 +27959,7 @@
       <c r="U536" s="89"/>
       <c r="V536" s="89"/>
     </row>
-    <row r="537" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B537" s="32">
         <v>23</v>
       </c>
@@ -28006,7 +28006,7 @@
       <c r="U537" s="89"/>
       <c r="V537" s="89"/>
     </row>
-    <row r="538" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B538" s="32">
         <v>23</v>
       </c>
@@ -28053,7 +28053,7 @@
       <c r="U538" s="89"/>
       <c r="V538" s="89"/>
     </row>
-    <row r="539" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B539" s="32">
         <v>23</v>
       </c>
@@ -28100,7 +28100,7 @@
       <c r="U539" s="89"/>
       <c r="V539" s="89"/>
     </row>
-    <row r="540" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B540" s="32">
         <v>23</v>
       </c>
@@ -28147,7 +28147,7 @@
       <c r="U540" s="89"/>
       <c r="V540" s="89"/>
     </row>
-    <row r="541" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B541" s="32">
         <v>23</v>
       </c>
@@ -28194,7 +28194,7 @@
       <c r="U541" s="89"/>
       <c r="V541" s="89"/>
     </row>
-    <row r="542" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B542" s="32">
         <v>23</v>
       </c>
@@ -28241,7 +28241,7 @@
       <c r="U542" s="89"/>
       <c r="V542" s="89"/>
     </row>
-    <row r="543" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B543" s="32">
         <v>23</v>
       </c>
@@ -28288,7 +28288,7 @@
       <c r="U543" s="89"/>
       <c r="V543" s="89"/>
     </row>
-    <row r="544" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B544" s="32">
         <v>23</v>
       </c>
@@ -28335,7 +28335,7 @@
       <c r="U544" s="89"/>
       <c r="V544" s="89"/>
     </row>
-    <row r="545" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B545" s="32">
         <v>23</v>
       </c>
@@ -28382,7 +28382,7 @@
       <c r="U545" s="89"/>
       <c r="V545" s="89"/>
     </row>
-    <row r="546" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="32">
         <v>23</v>
       </c>
@@ -28429,7 +28429,7 @@
       <c r="U546" s="89"/>
       <c r="V546" s="89"/>
     </row>
-    <row r="547" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="53">
         <v>23</v>
       </c>
@@ -28476,7 +28476,7 @@
       <c r="U547" s="89"/>
       <c r="V547" s="89"/>
     </row>
-    <row r="548" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B548" s="32">
         <v>23</v>
       </c>
@@ -28523,7 +28523,7 @@
       <c r="U548" s="89"/>
       <c r="V548" s="89"/>
     </row>
-    <row r="549" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B549" s="32">
         <v>23</v>
       </c>
@@ -28570,7 +28570,7 @@
       <c r="U549" s="89"/>
       <c r="V549" s="89"/>
     </row>
-    <row r="550" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B550" s="32">
         <v>23</v>
       </c>
@@ -28617,7 +28617,7 @@
       <c r="U550" s="89"/>
       <c r="V550" s="89"/>
     </row>
-    <row r="551" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B551" s="32">
         <v>23</v>
       </c>
@@ -28664,7 +28664,7 @@
       <c r="U551" s="89"/>
       <c r="V551" s="89"/>
     </row>
-    <row r="552" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B552" s="32">
         <v>23</v>
       </c>
@@ -28711,7 +28711,7 @@
       <c r="U552" s="89"/>
       <c r="V552" s="89"/>
     </row>
-    <row r="553" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B553" s="32">
         <v>23</v>
       </c>
@@ -28758,7 +28758,7 @@
       <c r="U553" s="89"/>
       <c r="V553" s="89"/>
     </row>
-    <row r="554" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B554" s="32">
         <v>23</v>
       </c>
@@ -28805,7 +28805,7 @@
       <c r="U554" s="89"/>
       <c r="V554" s="89"/>
     </row>
-    <row r="555" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B555" s="32">
         <v>23</v>
       </c>
@@ -28852,7 +28852,7 @@
       <c r="U555" s="89"/>
       <c r="V555" s="89"/>
     </row>
-    <row r="556" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B556" s="32">
         <v>23</v>
       </c>
@@ -28899,7 +28899,7 @@
       <c r="U556" s="89"/>
       <c r="V556" s="89"/>
     </row>
-    <row r="557" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B557" s="32">
         <v>23</v>
       </c>
@@ -28946,7 +28946,7 @@
       <c r="U557" s="89"/>
       <c r="V557" s="89"/>
     </row>
-    <row r="558" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B558" s="32">
         <v>23</v>
       </c>
@@ -28993,7 +28993,7 @@
       <c r="U558" s="89"/>
       <c r="V558" s="89"/>
     </row>
-    <row r="559" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B559" s="32">
         <v>23</v>
       </c>
@@ -29040,7 +29040,7 @@
       <c r="U559" s="89"/>
       <c r="V559" s="89"/>
     </row>
-    <row r="560" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="53">
         <v>23</v>
       </c>
@@ -29087,7 +29087,7 @@
       <c r="U560" s="89"/>
       <c r="V560" s="89"/>
     </row>
-    <row r="561" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B561" s="32">
         <v>23</v>
       </c>
@@ -29134,7 +29134,7 @@
       <c r="U561" s="89"/>
       <c r="V561" s="89"/>
     </row>
-    <row r="562" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B562" s="32">
         <v>23</v>
       </c>
@@ -29181,7 +29181,7 @@
       <c r="U562" s="89"/>
       <c r="V562" s="89"/>
     </row>
-    <row r="563" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B563" s="32">
         <v>23</v>
       </c>
@@ -29228,7 +29228,7 @@
       <c r="U563" s="89"/>
       <c r="V563" s="89"/>
     </row>
-    <row r="564" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B564" s="32">
         <v>23</v>
       </c>
@@ -29275,7 +29275,7 @@
       <c r="U564" s="89"/>
       <c r="V564" s="89"/>
     </row>
-    <row r="565" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B565" s="32">
         <v>23</v>
       </c>
@@ -29322,7 +29322,7 @@
       <c r="U565" s="89"/>
       <c r="V565" s="89"/>
     </row>
-    <row r="566" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B566" s="32">
         <v>23</v>
       </c>
@@ -29369,7 +29369,7 @@
       <c r="U566" s="89"/>
       <c r="V566" s="89"/>
     </row>
-    <row r="567" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B567" s="32">
         <v>23</v>
       </c>
@@ -29416,7 +29416,7 @@
       <c r="U567" s="89"/>
       <c r="V567" s="89"/>
     </row>
-    <row r="568" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B568" s="32">
         <v>23</v>
       </c>
@@ -29463,7 +29463,7 @@
       <c r="U568" s="89"/>
       <c r="V568" s="89"/>
     </row>
-    <row r="569" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="53">
         <v>23</v>
       </c>
@@ -29510,7 +29510,7 @@
       <c r="U569" s="89"/>
       <c r="V569" s="89"/>
     </row>
-    <row r="570" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B570" s="32">
         <v>23</v>
       </c>
@@ -29557,7 +29557,7 @@
       <c r="U570" s="89"/>
       <c r="V570" s="89"/>
     </row>
-    <row r="571" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B571" s="32">
         <v>23</v>
       </c>
@@ -29604,7 +29604,7 @@
       <c r="U571" s="89"/>
       <c r="V571" s="89"/>
     </row>
-    <row r="572" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B572" s="32">
         <v>23</v>
       </c>
@@ -29651,7 +29651,7 @@
       <c r="U572" s="89"/>
       <c r="V572" s="89"/>
     </row>
-    <row r="573" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B573" s="32">
         <v>23</v>
       </c>
@@ -29698,7 +29698,7 @@
       <c r="U573" s="89"/>
       <c r="V573" s="89"/>
     </row>
-    <row r="574" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B574" s="32">
         <v>23</v>
       </c>
@@ -29745,7 +29745,7 @@
       <c r="U574" s="89"/>
       <c r="V574" s="89"/>
     </row>
-    <row r="575" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B575" s="32">
         <v>23</v>
       </c>
@@ -29792,7 +29792,7 @@
       <c r="U575" s="89"/>
       <c r="V575" s="89"/>
     </row>
-    <row r="576" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B576" s="32">
         <v>23</v>
       </c>
@@ -29839,7 +29839,7 @@
       <c r="U576" s="89"/>
       <c r="V576" s="89"/>
     </row>
-    <row r="577" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B577" s="32">
         <v>23</v>
       </c>
@@ -29886,7 +29886,7 @@
       <c r="U577" s="89"/>
       <c r="V577" s="89"/>
     </row>
-    <row r="578" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="32">
         <v>23</v>
       </c>
@@ -29933,7 +29933,7 @@
       <c r="U578" s="89"/>
       <c r="V578" s="89"/>
     </row>
-    <row r="579" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B579" s="32">
         <v>23</v>
       </c>
@@ -29980,7 +29980,7 @@
       <c r="U579" s="89"/>
       <c r="V579" s="89"/>
     </row>
-    <row r="580" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B580" s="32">
         <v>23</v>
       </c>
@@ -30027,7 +30027,7 @@
       <c r="U580" s="89"/>
       <c r="V580" s="89"/>
     </row>
-    <row r="581" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="53">
         <v>23</v>
       </c>
@@ -30092,7 +30092,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="582" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="53">
         <v>23</v>
       </c>
@@ -30141,7 +30141,7 @@
       <c r="U582" s="89"/>
       <c r="V582" s="89"/>
     </row>
-    <row r="583" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B583" s="62">
         <v>23</v>
       </c>
@@ -30188,7 +30188,7 @@
       <c r="U583" s="93"/>
       <c r="V583" s="93"/>
     </row>
-    <row r="584" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B584" s="62">
         <v>23</v>
       </c>
@@ -30233,7 +30233,7 @@
       <c r="U584" s="89"/>
       <c r="V584" s="89"/>
     </row>
-    <row r="585" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B585" s="62">
         <v>23</v>
       </c>
@@ -30278,7 +30278,7 @@
       <c r="U585" s="89"/>
       <c r="V585" s="89"/>
     </row>
-    <row r="586" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B586" s="62">
         <v>23</v>
       </c>
@@ -30323,7 +30323,7 @@
       <c r="U586" s="89"/>
       <c r="V586" s="89"/>
     </row>
-    <row r="587" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B587" s="62">
         <v>23</v>
       </c>
@@ -30368,7 +30368,7 @@
       <c r="U587" s="89"/>
       <c r="V587" s="89"/>
     </row>
-    <row r="588" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B588" s="62">
         <v>23</v>
       </c>
@@ -30413,7 +30413,7 @@
       <c r="U588" s="89"/>
       <c r="V588" s="89"/>
     </row>
-    <row r="589" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B589" s="62">
         <v>23</v>
       </c>
